--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_128.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_128.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9675</v>
+        <v>2.1676</v>
       </c>
       <c r="J3" t="n">
-        <v>1.66</v>
+        <v>27.72</v>
       </c>
       <c r="K3" t="n">
-        <v>58.72</v>
+        <v>1078.55</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="R3" t="n">
-        <v>943.2159</v>
+        <v>1077.666</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.822</v>
+        <v>1.9808</v>
       </c>
       <c r="J4" t="n">
-        <v>23.5</v>
+        <v>3.06</v>
       </c>
       <c r="K4" t="n">
-        <v>768.77</v>
+        <v>108.9</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
       <c r="R4" t="n">
-        <v>895.6318</v>
+        <v>977.0315000000001</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.239100000000001</v>
+        <v>9.8714</v>
       </c>
       <c r="J5" t="n">
-        <v>27.2</v>
+        <v>26.68</v>
       </c>
       <c r="K5" t="n">
-        <v>4511.63</v>
+        <v>4727.77</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.96</v>
+        <v>11.38</v>
       </c>
       <c r="R5" t="n">
-        <v>3835.4729</v>
+        <v>4033.3526</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.1744</v>
+        <v>11.9214</v>
       </c>
       <c r="J6" t="n">
-        <v>27.29</v>
+        <v>26.93</v>
       </c>
       <c r="K6" t="n">
-        <v>5475.83</v>
+        <v>5763.46</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>10.14</v>
+        <v>9.74</v>
       </c>
       <c r="R6" t="n">
-        <v>3251.3668</v>
+        <v>3452.1889</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9382</v>
+        <v>5.2714</v>
       </c>
       <c r="J7" t="n">
-        <v>33.29</v>
+        <v>32.77</v>
       </c>
       <c r="K7" t="n">
-        <v>2951.69</v>
+        <v>3101.43</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.37</v>
+        <v>7.03</v>
       </c>
       <c r="R7" t="n">
-        <v>2363.2828</v>
+        <v>2493.1655</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>58.9792</v>
+        <v>62.9313</v>
       </c>
       <c r="J8" t="n">
-        <v>4.28</v>
+        <v>4.16</v>
       </c>
       <c r="K8" t="n">
-        <v>4535.7</v>
+        <v>4701.21</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>13.83</v>
+        <v>13.09</v>
       </c>
       <c r="R8" t="n">
-        <v>4436.5974</v>
+        <v>4640.8944</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I9" t="n">
-        <v>11.2532</v>
+        <v>12.5229</v>
       </c>
       <c r="J9" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K9" t="n">
-        <v>389.54</v>
+        <v>376.61</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>0.96</v>
       </c>
       <c r="R9" t="n">
-        <v>308.671</v>
+        <v>341.3104</v>
       </c>
     </row>
   </sheetData>
